--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st05.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st05.xlsx
@@ -2736,7 +2736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="안셀"]  예리하시네요. 확실히 간혹 그런 상황이 발생하기도 해요. 그런 경우엔 당연히 책임을 묻을 거지만, 그래도 어찌 됐었든 간에 환자를 그냥 내버려 둘 수는 없으니까요.
+    <t xml:space="preserve">[name="안셀"]  예리하시네요. 확실히 간혹 그런 상황이 발생하기도 해요. 그런 경우엔 당연히 책임을 물을 거지만, 그래도 어찌 됐었든 간에 환자를 그냥 내버려 둘 수는 없으니까요.
 </t>
   </si>
   <si>
@@ -3048,7 +3048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="안셀"]  …...그때쯤이면, 저도 큰아버지 앞에 당당히 설 수 있을 정도의 기세는 갖출 수 있겠죠.
+    <t xml:space="preserve">[name="안셀"]  ……그때쯤이면, 저도 큰아버지 앞에 당당히 설 수 있을 정도의 기세는 갖출 수 있겠죠.
 </t>
   </si>
   <si>
@@ -3220,7 +3220,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="에이프릴"]  그럼 안셀 말대로라면, 박사는 새로은 삶을 선택할 수 있는 거네?
+    <t xml:space="preserve">[name="에이프릴"]  그럼 안셀 말대로라면, 박사는 새로운 삶을 선택할 수 있는 거네?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st05.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st05.xlsx
@@ -2024,7 +2024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  It comes with the job, I guess. And you can drop the “doctor”, just Ansel is fine. We’re pretty much the same age, right?
+    <t xml:space="preserve">[name="Ansel"]  It comes with the job, I guess. And you can drop the 'doctor', just Ansel is fine. We’re pretty much the same age, right?
 </t>
   </si>
   <si>
@@ -2196,7 +2196,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  And one day I’ll be able to go back, puff out my chest and say: “Look, Uncle, see how many people I’ve saved? I made a huge contribution to the fight against Oripathy.” 
+    <t xml:space="preserve">[name="Ansel"]  And one day I’ll be able to go back, puff out my chest and say: 'Look, Uncle, see how many people I’ve saved? I made a huge contribution to the fight against Oripathy.' 
 </t>
   </si>
   <si>
@@ -2476,7 +2476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  Then I’d lie down in the middle of the rooftop, put on my headphones, and play my favorite song: “April”. I’d think about whatever, and take a nice nap.
+    <t xml:space="preserve">[name="April"]  Then I’d lie down in the middle of the rooftop, put on my headphones, and play my favorite song: 'April'. I’d think about whatever, and take a nice nap.
 </t>
   </si>
   <si>
@@ -2652,7 +2652,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="안셀"]  안녕하세요 에이프릴. 의료 부서의 안셀이라고 합니다.
+    <t xml:space="preserve">[name="안셀"]  안녕하세요 에이프릴. 의료부의 안셀이라고 합니다.
 </t>
   </si>
   <si>
@@ -2708,7 +2708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="안셀"]  그렇죠. 우리는 평상시에도 전달자 오퍼레이터에게 장기 출장같은 임무를 내어주거든요.
+    <t xml:space="preserve">[name="안셀"]  그렇죠. 우리는 평상시에도 전달자 오퍼레이터에게 장기 외근같은 임무를 내어주거든요.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st05.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st05.xlsx
@@ -1728,15 +1728,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  I’d better hurry home and shower.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  Oh, who’s that over there...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Messenger"]  Alright, that’s the letter and every last cent accounted for.
+    <t xml:space="preserve">[name="April"]  I'd better hurry home and shower.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  Oh, who's that over there...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Messenger"]  Alright, that's the letter and every last cent accounted for.
 </t>
   </si>
   <si>
@@ -1744,31 +1744,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Messenger"]  Hah, don’t worry about it. You’re a very good customer. Pretty much your whole family knows me by now. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Messenger"]  But you haven’t been back in a while, huh? Why not take a trip home? Your uncle’s gonna ask me to drag you back to Rim Billiton as soon as he sees me.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Messenger"]  Not that I’m one to talk, the way I’ve been running around for a year and change. But you know all the letters in the world can’t compare with you going home in person.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  ...I know. It’s just, there’s still patients here who need me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  When I have some free time, I’ll go back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Messenger"]  Well, I think you’ve got a handle on it, so I’ll leave it here for now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Messenger"]  Anyway, I’ll check over the letters again and then head out.
+    <t xml:space="preserve">[name="Rhodes Island Messenger"]  Hah, don't worry about it. You're a very good customer. Pretty much your whole family knows me by now. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Messenger"]  But you haven't been back in a while, huh? Why not take a trip home? Your uncle's gonna ask me to drag you back to Rim Billiton as soon as he sees me.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Messenger"]  Not that I'm one to talk, the way I've been running around for a year and change. But you know all the letters in the world can't compare with you going home in person.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  ...I know. It's just, there's still patients here who need me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  When I have some free time, I'll go back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Messenger"]  Well, I think you've got a handle on it, so I'll leave it here for now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Messenger"]  Anyway, I'll check over the letters again and then head out.
 </t>
   </si>
   <si>
@@ -1792,7 +1792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  So they’ve got Messengers at Rhodes Island too.
+    <t xml:space="preserve">[name="April"]  So they've got Messengers at Rhodes Island too.
 </t>
   </si>
   <si>
@@ -1800,19 +1800,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  I’m new here, codename’s April. But you can call me April.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  Nice to meet you, April. I’m Ansel, from Medical.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  There are lots of Messenger at Rhodes Island. And Messengers like the one just now aren’t our operators, they’re Messengers who exclusively serve us Rhodes Islanders.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  What’s the difference?
+    <t xml:space="preserve">[name="April"]  I'm new here, codename's April. But you can call me April.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  Nice to meet you, April. I'm Ansel, from Medical.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  There are lots of Messenger at Rhodes Island. And Messengers like the one just now aren't our operators, they're Messengers who exclusively serve us Rhodes Islanders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  What's the difference?
 </t>
   </si>
   <si>
@@ -1820,11 +1820,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  Yeah. She’s a Messenger girl, about my age?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  Right. A lot of Messengers get sick and end up working for us as operators to offset the cost of treatment. That’s what happened with Angelina.
+    <t xml:space="preserve">[name="April"]  Yeah. She's a Messenger girl, about my age?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  Right. A lot of Messengers get sick and end up working for us as operators to offset the cost of treatment. That's what happened with Angelina.
 </t>
   </si>
   <si>
@@ -1836,7 +1836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  Isn’t that pretty much the same as becoming a Messenger here though?
+    <t xml:space="preserve">[name="April"]  Isn't that pretty much the same as becoming a Messenger here though?
 </t>
   </si>
   <si>
@@ -1844,11 +1844,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  Because Messenger work doesn’t involve much contact with other people, and you’re always traveling all around, you can still do it even after becoming Infected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  Basically, most people aren’t going to know if the person bringing them their mail is Infected or not...
+    <t xml:space="preserve">[name="Ansel"]  Because Messenger work doesn't involve much contact with other people, and you're always traveling all around, you can still do it even after becoming Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  Basically, most people aren't going to know if the person bringing them their mail is Infected or not...
 </t>
   </si>
   <si>
@@ -1864,7 +1864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  And they tend to use Rhodes Island as a waystation for their work. And if they happen to be going near some friends or relatives of our operators, we’ll usually ask them to bring a letter or something.
+    <t xml:space="preserve">[name="Ansel"]  And they tend to use Rhodes Island as a waystation for their work. And if they happen to be going near some friends or relatives of our operators, we'll usually ask them to bring a letter or something.
 </t>
   </si>
   <si>
@@ -1876,7 +1876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  Whew, it all feels so loose... I couldn’t imagine anything like that at my old company.
+    <t xml:space="preserve">[name="April"]  Whew, it all feels so loose... I couldn't imagine anything like that at my old company.
 </t>
   </si>
   <si>
@@ -1888,15 +1888,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  You’re a sharp one. That does happen sometimes, and we do follow up on it. But no matter what happens, you can’t leave a patient unattended. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  You’re a real good person, Dr. Ansel.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  Thanks. I’m just here to help people.
+    <t xml:space="preserve">[name="Ansel"]  You're a sharp one. That does happen sometimes, and we do follow up on it. But no matter what happens, you can't leave a patient unattended. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  You're a real good person, Dr. Ansel.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  Thanks. I'm just here to help people.
 </t>
   </si>
   <si>
@@ -1908,11 +1908,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  Say, April, you’re from Rim Billiton too, aren’t you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  Yep. I’m from the south side of Steel Robot City.
+    <t xml:space="preserve">[name="Ansel"]  Say, April, you're from Rim Billiton too, aren't you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  Yep. I'm from the south side of Steel Robot City.
 </t>
   </si>
   <si>
@@ -1920,11 +1920,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  Yeah, that’s home. We’re supposed to be really proud of that productivity, but I can’t say it does much for me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  I’m from Iron Fist City. Do you have any relatives back home you need to contact? 
+    <t xml:space="preserve">[name="April"]  Yeah, that's home. We're supposed to be really proud of that productivity, but I can't say it does much for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  I'm from Iron Fist City. Do you have any relatives back home you need to contact? 
 </t>
   </si>
   <si>
@@ -1936,19 +1936,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  When I grew up, I worked for them as a hunter. It didn’t pay great, but I got by, until I caught Oripathy...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  ...I’m sorry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  Nah, it’s fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  I’ve heard that Rim Billiton’s companies actually treat the Infected pretty decently?
+    <t xml:space="preserve">[name="April"]  When I grew up, I worked for them as a hunter. It didn't pay great, but I got by, until I caught Oripathy...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  ...I'm sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  Nah, it's fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  I've heard that Rim Billiton's companies actually treat the Infected pretty decently?
 </t>
   </si>
   <si>
@@ -1956,15 +1956,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  That’s what I thought at first, but after living through it, I was so, so wrong.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  They like to talk about all the benefits they offer, but down in the fine print they have all kinds of deductibles and copays. And once they know you’ve got Oripathy, you’ll suddenly find all your work drying up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  Oripathy sufferers on their own, like me, just can’t survive.
+    <t xml:space="preserve">[name="April"]  That's what I thought at first, but after living through it, I was so, so wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  They like to talk about all the benefits they offer, but down in the fine print they have all kinds of deductibles and copays. And once they know you've got Oripathy, you'll suddenly find all your work drying up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  Oripathy sufferers on their own, like me, just can't survive.
 </t>
   </si>
   <si>
@@ -1976,15 +1976,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  Anyway, I lost my company ID and the lease on my room, so there’s nothing for me back in Rim Billiton anymore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  Hey now, don’t you give me that look, Dr. Ansel. I can’t stand pity.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  I made it to Rhodes Island, didn’t I?
+    <t xml:space="preserve">[name="April"]  Anyway, I lost my company ID and the lease on my room, so there's nothing for me back in Rim Billiton anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  Hey now, don't you give me that look, Dr. Ansel. I can't stand pity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  I made it to Rhodes Island, didn't I?
 </t>
   </si>
   <si>
@@ -1996,7 +1996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  Oh, but you don’t have to tell me if it’s something really personal. And I won’t tell anyone either!
+    <t xml:space="preserve">[name="April"]  Oh, but you don't have to tell me if it's something really personal. And I won't tell anyone either!
 </t>
   </si>
   <si>
@@ -2024,7 +2024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  It comes with the job, I guess. And you can drop the 'doctor', just Ansel is fine. We’re pretty much the same age, right?
+    <t xml:space="preserve">[name="Ansel"]  It comes with the job, I guess. And you can drop the 'doctor', just Ansel is fine. We're pretty much the same age, right?
 </t>
   </si>
   <si>
@@ -2032,7 +2032,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  Eat up, first. We’ll get into it after we’ve taken the edge off.
+    <t xml:space="preserve">[name="Ansel"]  Eat up, first. We'll get into it after we've taken the edge off.
 </t>
   </si>
   <si>
@@ -2040,7 +2040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  ...I always say I wish I could see my family, but the truth is I don’t really want to go back.
+    <t xml:space="preserve">[name="Ansel"]  ...I always say I wish I could see my family, but the truth is I don't really want to go back.
 </t>
   </si>
   <si>
@@ -2048,7 +2048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  There’s some stuff I don’t want to deal with.
+    <t xml:space="preserve">[name="Ansel"]  There's some stuff I don't want to deal with.
 </t>
   </si>
   <si>
@@ -2064,7 +2064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  Yeah, that happens a lot. If I had any relatives, I’d have ended up like that.
+    <t xml:space="preserve">[name="April"]  Yeah, that happens a lot. If I had any relatives, I'd have ended up like that.
 </t>
   </si>
   <si>
@@ -2072,7 +2072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  So you don’t wanna go back because your uncle was bad to you?
+    <t xml:space="preserve">[name="April"]  So you don't wanna go back because your uncle was bad to you?
 </t>
   </si>
   <si>
@@ -2080,11 +2080,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  It’s just...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  He didn’t want me to become a doctor.
+    <t xml:space="preserve">[name="Ansel"]  It's just...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  He didn't want me to become a doctor.
 </t>
   </si>
   <si>
@@ -2092,19 +2092,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  When I was little, I helped out at Uncle’s company. He was grooming me to take over his job.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  I didn’t listen to him. I decided to become a doctor, and went far away to Rhodes Island.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  Woah. So you’re a runaway, Ansel?!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  Ahaha, no, I wouldn’t go that far.
+    <t xml:space="preserve">[name="Ansel"]  When I was little, I helped out at Uncle's company. He was grooming me to take over his job.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  I didn't listen to him. I decided to become a doctor, and went far away to Rhodes Island.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  Woah. So you're a runaway, Ansel?!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  Ahaha, no, I wouldn't go that far.
 </t>
   </si>
   <si>
@@ -2120,11 +2120,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  I get where he’s coming from. I never got the impression it was easy to practice medicine in Rim Billiton.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  Right. First, it’s tough to get started. Then, it’s tough to keep going. 
+    <t xml:space="preserve">[name="April"]  I get where he's coming from. I never got the impression it was easy to practice medicine in Rim Billiton.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  Right. First, it's tough to get started. Then, it's tough to keep going. 
 </t>
   </si>
   <si>
@@ -2132,15 +2132,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  It definitely wouldn’t be as stable a life as working for Uncle’s company, and it’d be hard to find a job.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  I seriously considered going with his plan. It really isn’t a bad place to work.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  And he did so much for me. I felt like I couldn’t let him down.
+    <t xml:space="preserve">[name="Ansel"]  It definitely wouldn't be as stable a life as working for Uncle's company, and it'd be hard to find a job.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  I seriously considered going with his plan. It really isn't a bad place to work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  And he did so much for me. I felt like I couldn't let him down.
 </t>
   </si>
   <si>
@@ -2148,7 +2148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  It sounds like your uncle is a real good bloke, though. If my mom and dad were still around, I don’t think they’d be okay with something like that. 
+    <t xml:space="preserve">[name="April"]  It sounds like your uncle is a real good bloke, though. If my mom and dad were still around, I don't think they'd be okay with something like that. 
 </t>
   </si>
   <si>
@@ -2156,11 +2156,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  But Uncle isn’t the type to keep his feelings bottled up inside. He’s been with the company for half his life, and he still hopes I’ll go back to continue his work someday.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  I’ve been back twice, and it’s always hard.
+    <t xml:space="preserve">[name="Ansel"]  But Uncle isn't the type to keep his feelings bottled up inside. He's been with the company for half his life, and he still hopes I'll go back to continue his work someday.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  I've been back twice, and it's always hard.
 </t>
   </si>
   <si>
@@ -2172,15 +2172,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  I can’t really relate to any of that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  Let’s just say everybody’s got baggage.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  I think I’m doing the right thing. And Rhodes Island treats me well.
+    <t xml:space="preserve">[name="April"]  I can't really relate to any of that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  Let's just say everybody's got baggage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  I think I'm doing the right thing. And Rhodes Island treats me well.
 </t>
   </si>
   <si>
@@ -2188,7 +2188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  There’s nothing I can do to change how Uncle feels.
+    <t xml:space="preserve">[name="Ansel"]  There's nothing I can do to change how Uncle feels.
 </t>
   </si>
   <si>
@@ -2196,19 +2196,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  And one day I’ll be able to go back, puff out my chest and say: 'Look, Uncle, see how many people I’ve saved? I made a huge contribution to the fight against Oripathy.' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  ...But I guess by then I’ll probably be brave enough to just face him anyway.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  Soft and weak as you look, Ansel, who would’ve thought you’ve got all this going on?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  I can’t tell if that’s supposed to be a compliment.
+    <t xml:space="preserve">[name="Ansel"]  And one day I'll be able to go back, puff out my chest and say: 'Look, Uncle, see how many people I've saved? I made a huge contribution to the fight against Oripathy.' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  ...But I guess by then I'll probably be brave enough to just face him anyway.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  Soft and weak as you look, Ansel, who would've thought you've got all this going on?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  I can't tell if that's supposed to be a compliment.
 </t>
   </si>
   <si>
@@ -2236,7 +2236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  Maybe someday I’ll leave Rhodes and head back home to practice medicine. 
+    <t xml:space="preserve">[name="Ansel"]  Maybe someday I'll leave Rhodes and head back home to practice medicine. 
 </t>
   </si>
   <si>
@@ -2248,7 +2248,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  Nothing. I was just thinking about how even though I say I don’t miss Rim Billiton at all, I don’t know if maybe I would go back.
+    <t xml:space="preserve">[name="April"]  Nothing. I was just thinking about how even though I say I don't miss Rim Billiton at all, I don't know if maybe I would go back.
 </t>
   </si>
   <si>
@@ -2260,11 +2260,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  Yes, but also no. It’s the name of a song about spring. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  I never felt like I liked Rim Billiton. I don’t like any of the stuff you’ve been talking about.
+    <t xml:space="preserve">[name="April"]  Yes, but also no. It's the name of a song about spring. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  I never felt like I liked Rim Billiton. I don't like any of the stuff you've been talking about.
 </t>
   </si>
   <si>
@@ -2272,7 +2272,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  Life wasn’t easy even before I got Oripathy.
+    <t xml:space="preserve">[name="April"]  Life wasn't easy even before I got Oripathy.
 </t>
   </si>
   <si>
@@ -2280,11 +2280,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  I made some money, but it was real hard out there. A ten day trip was common, and sometimes we’d even be gone for a month or two.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  And it’s not like there was much to do when we didn’t have a job either.
+    <t xml:space="preserve">[name="April"]  I made some money, but it was real hard out there. A ten day trip was common, and sometimes we'd even be gone for a month or two.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  And it's not like there was much to do when we didn't have a job either.
 </t>
   </si>
   <si>
@@ -2296,15 +2296,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  Those factories, and even just the streets were so noisy they’d wake me up in the middle of the night.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  And would you believe my apartment was so lousy I’d run out of water right in the middle of a shower sometimes?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  Phew, those don’t sound like good memories...
+    <t xml:space="preserve">[name="April"]  Those factories, and even just the streets were so noisy they'd wake me up in the middle of the night.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  And would you believe my apartment was so lousy I'd run out of water right in the middle of a shower sometimes?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  Phew, those don't sound like good memories...
 </t>
   </si>
   <si>
@@ -2312,7 +2312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  It was a ruthless, cutthroat company for sure, but they took care of me for years. I don’t know what the upper management was like, but I remember when I went to the office to talk about my benefits, the people there definitely weren’t happy about what they had to do.
+    <t xml:space="preserve">[name="April"]  It was a ruthless, cutthroat company for sure, but they took care of me for years. I don't know what the upper management was like, but I remember when I went to the office to talk about my benefits, the people there definitely weren't happy about what they had to do.
 </t>
   </si>
   <si>
@@ -2324,7 +2324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  The supermarket down there had all kinds of good stuff on rotation too. Speaking of, I don’t think I’ve ever seen meatballs like that anywhere else. Those were super tasty.
+    <t xml:space="preserve">[name="April"]  The supermarket down there had all kinds of good stuff on rotation too. Speaking of, I don't think I've ever seen meatballs like that anywhere else. Those were super tasty.
 </t>
   </si>
   <si>
@@ -2332,7 +2332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  I know what’s going on here, I’m just getting a strong hit of nostalgia. 
+    <t xml:space="preserve">[name="April"]  I know what's going on here, I'm just getting a strong hit of nostalgia. 
 </t>
   </si>
   <si>
@@ -2348,7 +2348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  I’ve thought about trying another life for myself, like becoming a Vanguard Operator or a caster. Or going into civilian work.
+    <t xml:space="preserve">[name="Ansel"]  I've thought about trying another life for myself, like becoming a Vanguard Operator or a caster. Or going into civilian work.
 </t>
   </si>
   <si>
@@ -2360,7 +2360,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  I was born in Rim Billiton, and I grew up among the workers. Unless I suddenly woke up with amnesia someday, there’s no way I could deny my past.
+    <t xml:space="preserve">[name="Ansel"]  I was born in Rim Billiton, and I grew up among the workers. Unless I suddenly woke up with amnesia someday, there's no way I could deny my past.
 </t>
   </si>
   <si>
@@ -2368,7 +2368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  Oh, yes. That’s no secret.
+    <t xml:space="preserve">[name="Ansel"]  Oh, yes. That's no secret.
 </t>
   </si>
   <si>
@@ -2380,7 +2380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  I don’t know the Doctor’s past, but Amiya, Dr. Kal'tsit, and lots of others do.
+    <t xml:space="preserve">[name="Ansel"]  I don't know the Doctor's past, but Amiya, Dr. Kal'tsit, and lots of others do.
 </t>
   </si>
   <si>
@@ -2388,7 +2388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  So I guess that means even if you do lose your memory, you’re still stuck with your past.
+    <t xml:space="preserve">[name="Ansel"]  So I guess that means even if you do lose your memory, you're still stuck with your past.
 </t>
   </si>
   <si>
@@ -2400,11 +2400,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  Right. But it’s not really the town itself that matters, it’s the mark left on you by the time you spent there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  I could’ve given up that mark, but I decided to hold onto it.
+    <t xml:space="preserve">[name="Ansel"]  Right. But it's not really the town itself that matters, it's the mark left on you by the time you spent there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  I could've given up that mark, but I decided to hold onto it.
 </t>
   </si>
   <si>
@@ -2424,59 +2424,59 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  Doesn’t matter. We’re still young. We’ve got a lot of time to figure that one out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  But I guess I didn’t leave Rim Billiton to get away from that life, at least.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  If I could’ve kept on living there, I probably would’ve. I just didn’t have a choice.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  I suffered a lot after I became Infected, yeah, but I can’t keep on hating people, and saying stuff like I hate Rim Billiton.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  That’s totally normal. When someone gets Infected, his whole worldview doesn’t turn on a dime.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  You’ll have a better understanding after you live at Rhodes Island for a while. At least for now, we can keep talking about home, and our past.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  Right, well, I guess I have to admit I’m the accepting type, huh?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  I probably won’t say I like Rim Billiton, but I can say I like Steel Robot City.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  I’ll never forget how, whenever I was feeling down, I’d head up to the roof of my apartment building.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  It wasn’t that tall. There were other, taller ones around.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  And I’d feel fenced in, trapped by those tall buildings around me. Like the piece of sky straight up above me was all I could see.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  But it was also kind of reassuring, because I don’t need a lot of space. I don’t like having too many choices. A little coziness is just right for me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  I’d look around and see what the neighbors were doing. Sometimes I’d see something fun, sometimes I wouldn’t. But it didn’t matter.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  Then I’d lie down in the middle of the rooftop, put on my headphones, and play my favorite song: 'April'. I’d think about whatever, and take a nice nap.
+    <t xml:space="preserve">[name="Ansel"]  Doesn't matter. We're still young. We've got a lot of time to figure that one out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  But I guess I didn't leave Rim Billiton to get away from that life, at least.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  If I could've kept on living there, I probably would've. I just didn't have a choice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  I suffered a lot after I became Infected, yeah, but I can't keep on hating people, and saying stuff like I hate Rim Billiton.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  That's totally normal. When someone gets Infected, his whole worldview doesn't turn on a dime.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  You'll have a better understanding after you live at Rhodes Island for a while. At least for now, we can keep talking about home, and our past.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  Right, well, I guess I have to admit I'm the accepting type, huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  I probably won't say I like Rim Billiton, but I can say I like Steel Robot City.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  I'll never forget how, whenever I was feeling down, I'd head up to the roof of my apartment building.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  It wasn't that tall. There were other, taller ones around.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  And I'd feel fenced in, trapped by those tall buildings around me. Like the piece of sky straight up above me was all I could see.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  But it was also kind of reassuring, because I don't need a lot of space. I don't like having too many choices. A little coziness is just right for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  I'd look around and see what the neighbors were doing. Sometimes I'd see something fun, sometimes I wouldn't. But it didn't matter.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  Then I'd lie down in the middle of the rooftop, put on my headphones, and play my favorite song: 'April.' I'd think about whatever, and take a nice nap.
 </t>
   </si>
   <si>
@@ -2492,11 +2492,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  I’ll point you towards an operator named Kroos. She’s got a lot of experience finding places to slack off.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  Really? That’d be great! I’ll go find her in a bit! 
+    <t xml:space="preserve">[name="Ansel"]  I'll point you towards an operator named Kroos. She's got a lot of experience finding places to slack off.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  Really? That'd be great! I'll go find her in a bit! 
 </t>
   </si>
   <si>
@@ -2504,15 +2504,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  It’s your fault.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ansel"]  Hah, well, I’m sorry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  I’ll set that aside for now. I’m still new here. I can’t go taking a vacation right away. 
+    <t xml:space="preserve">[name="April"]  It's your fault.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ansel"]  Hah, well, I'm sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  I'll set that aside for now. I'm still new here. I can't go taking a vacation right away. 
 </t>
   </si>
   <si>
@@ -2524,15 +2524,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ansel"]  Probably not. I think he’s here until tomorrow.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  Great, I’ll go get him!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="April"]  Mr. Messenger! You’re going to Rim Billiton, right? 
+    <t xml:space="preserve">[name="Ansel"]  Probably not. I think he's here until tomorrow.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  Great, I'll go get him!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="April"]  Mr. Messenger! You're going to Rim Billiton, right? 
 </t>
   </si>
   <si>
@@ -2540,7 +2540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  April’s fine. But it’s not a letter, I was hoping you could do something for me? 
+    <t xml:space="preserve">[name="April"]  April's fine. But it's not a letter, I was hoping you could do something for me? 
 </t>
   </si>
   <si>
@@ -2548,7 +2548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="April"]  When you’re in Rim Billiton, could you please go to the top of a tall building and take a picture of the view up there?
+    <t xml:space="preserve">[name="April"]  When you're in Rim Billiton, could you please go to the top of a tall building and take a picture of the view up there?
 </t>
   </si>
   <si>
@@ -2556,7 +2556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Messenger"]  ...But it doesn’t sound hard. I could probably do that.
+    <t xml:space="preserve">[name="Rhodes Island Messenger"]  ...But it doesn't sound hard. I could probably do that.
 </t>
   </si>
   <si>
